--- a/II.1- Relevant Factors/Technology/data.xlsx
+++ b/II.1- Relevant Factors/Technology/data.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$4:$H$14</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>200-300[20]</t>
   </si>
@@ -409,11 +409,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1118097600"/>
-        <c:axId val="-1118104128"/>
+        <c:axId val="-1218590592"/>
+        <c:axId val="-1195794160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1118097600"/>
+        <c:axId val="-1218590592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,7 +456,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1118104128"/>
+        <c:crossAx val="-1195794160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -464,7 +464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1118104128"/>
+        <c:axId val="-1195794160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +515,375 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1118097600"/>
+        <c:crossAx val="-1218590592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Battery </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Cost ($/kWh)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cost ($/kWh)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$J$5:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>572.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="-871744288"/>
+        <c:axId val="-871743744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-871744288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-871743744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-871743744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-871744288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -604,6 +972,12 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1107,20 +1481,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>242887</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>451757</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>143555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>461962</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>146957</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>162605</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1134,6 +2010,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1429,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,8 +2349,8 @@
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>2014</v>
       </c>
@@ -1456,7 +2362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1467,7 +2373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1486,8 +2392,14 @@
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1506,8 +2418,14 @@
       <c r="H5">
         <v>750</v>
       </c>
+      <c r="J5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="K5">
+        <v>750</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1526,8 +2444,14 @@
       <c r="H6">
         <v>750</v>
       </c>
+      <c r="J6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="K6">
+        <v>750</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1546,8 +2470,15 @@
       <c r="H7">
         <v>400</v>
       </c>
+      <c r="J7" s="1">
+        <v>2012</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE(H7:H11)</f>
+        <v>572.20000000000005</v>
+      </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1566,8 +2497,15 @@
       <c r="H8">
         <v>500</v>
       </c>
+      <c r="J8" s="1">
+        <v>2013</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE(H12:H13)</f>
+        <v>650</v>
+      </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +2524,14 @@
       <c r="H9">
         <v>520</v>
       </c>
+      <c r="J9" s="1">
+        <v>2014</v>
+      </c>
+      <c r="K9">
+        <v>200</v>
+      </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1607,7 +2551,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1627,7 +2571,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1638,7 +2582,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1649,7 +2593,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1660,7 +2604,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1669,7 +2613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1678,7 +2622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" ht="75" x14ac:dyDescent="0.25">
       <c r="F18" s="4" t="s">
         <v>19</v>
       </c>
